--- a/New_studies.xlsx
+++ b/New_studies.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JHawkins\Documents\Github\DMI.prediction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92483569-D670-4AB8-8016-057607FF1281}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36DE998A-D9D6-4F20-9101-7666295D910B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{92CEF585-185E-4D66-8079-91C6C32D5A7E}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>Shem et al</t>
   </si>
@@ -66,16 +66,36 @@
   </si>
   <si>
     <t>Dairy</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/abs/pii/0377840181900262</t>
+  </si>
+  <si>
+    <t>Abate</t>
+  </si>
+  <si>
+    <t>https://www.animbiosci.org/journal/view.php?doi=10.5713/ajas.2002.516</t>
+  </si>
+  <si>
+    <t>undescript</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -98,13 +118,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -437,16 +460,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9643A5DB-58AE-47CC-BF0A-7C0C089D48CC}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.140625" customWidth="1"/>
-    <col min="2" max="3" width="12.85546875" customWidth="1"/>
+    <col min="1" max="1" width="17.7109375" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -464,7 +488,10 @@
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
@@ -486,8 +513,25 @@
       <c r="B4" t="s">
         <v>9</v>
       </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{9794C9B1-F0F3-45EE-9E55-56828B3B3008}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>